--- a/tp_data.xlsx
+++ b/tp_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\TPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2705B5-E21D-4779-8241-8BB2565D2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBF50CF-7274-4F70-8B84-1644283A67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E13C7F4B-36DE-49E5-8702-9FD5F531DEFA}"/>
+    <workbookView xWindow="3555" yWindow="1980" windowWidth="15375" windowHeight="7785" xr2:uid="{E13C7F4B-36DE-49E5-8702-9FD5F531DEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>data</t>
   </si>
@@ -53,12 +53,6 @@
     <t>wendergs</t>
   </si>
   <si>
-    <t>wendergs2@gmail.com</t>
-  </si>
-  <si>
-    <t>wendergs2@outlook.com</t>
-  </si>
-  <si>
     <t>wender_gs</t>
   </si>
   <si>
@@ -68,18 +62,12 @@
     <t>aiandraferreira</t>
   </si>
   <si>
-    <t>aiandraferreira22@gmail.com</t>
-  </si>
-  <si>
     <t>teste124</t>
   </si>
   <si>
     <t>fulano</t>
   </si>
   <si>
-    <t>fulanoferreira@teste.com</t>
-  </si>
-  <si>
     <t>teste125</t>
   </si>
   <si>
@@ -92,10 +80,55 @@
     <t>teste127</t>
   </si>
   <si>
-    <t>eu dnv</t>
-  </si>
-  <si>
-    <t>eudnv@teste.com</t>
+    <t>teste128</t>
+  </si>
+  <si>
+    <t>teste129</t>
+  </si>
+  <si>
+    <t>teste130</t>
+  </si>
+  <si>
+    <t>teste131</t>
+  </si>
+  <si>
+    <t>teste132</t>
+  </si>
+  <si>
+    <t>teste133</t>
+  </si>
+  <si>
+    <t>eu_dnv</t>
+  </si>
+  <si>
+    <t>to_ai</t>
+  </si>
+  <si>
+    <t>to_jovem</t>
+  </si>
+  <si>
+    <t>to_bem</t>
+  </si>
+  <si>
+    <t>to_querendo</t>
+  </si>
+  <si>
+    <t>te_amo</t>
+  </si>
+  <si>
+    <t>amorzao</t>
+  </si>
+  <si>
+    <t>teste134</t>
+  </si>
+  <si>
+    <t>amorzinho</t>
+  </si>
+  <si>
+    <t>teste135</t>
+  </si>
+  <si>
+    <t>willi</t>
   </si>
 </sst>
 </file>
@@ -173,10 +206,11 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -209,14 +243,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{278A29C7-9FE7-45C7-9EDE-7B845533EBD5}" name="Tabela1" displayName="Tabela1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E8" xr:uid="{278A29C7-9FE7-45C7-9EDE-7B845533EBD5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{278A29C7-9FE7-45C7-9EDE-7B845533EBD5}" name="Tabela1" displayName="Tabela1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E16" xr:uid="{278A29C7-9FE7-45C7-9EDE-7B845533EBD5}"/>
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{BE823253-FF68-4DB3-BD05-48ADB3022751}" name="v" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{B0D7A1F6-1A5D-4EB6-8FD1-E4A1319C86C1}" name="data" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00F798C0-FF91-446D-9F78-543957414FF5}" name="username" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{05AEBB82-4685-4716-BA85-9BA973528AEF}" name="email" dataDxfId="1" dataCellStyle="Hiperlink"/>
-    <tableColumn id="4" xr3:uid="{B8B902CA-AA0E-437C-AFB7-AC6658F995C4}" name="password" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{05AEBB82-4685-4716-BA85-9BA973528AEF}" name="email" dataDxfId="0" dataCellStyle="Hiperlink">
+      <calculatedColumnFormula>_xlfn.CONCAT(C2,"@gmail.com")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B8B902CA-AA0E-437C-AFB7-AC6658F995C4}" name="password" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C68564-A5BD-409F-A81C-5D552ACC9B78}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,8 +598,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
+      <c r="D2" s="5" t="str">
+        <f t="shared" ref="D2:D16" si="0">_xlfn.CONCAT(C2,"@gmail.com")</f>
+        <v>wendergs@gmail.com</v>
       </c>
       <c r="E2" s="6">
         <v>123456</v>
@@ -577,10 +614,11 @@
         <v>44268</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>wender_gs@gmail.com</v>
       </c>
       <c r="E3" s="6">
         <v>123456</v>
@@ -594,13 +632,14 @@
         <v>44815</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>aiandraferreira@gmail.com</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,13 +650,14 @@
         <v>44816</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fulano@gmail.com</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,13 +668,14 @@
         <v>44817</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>fulano@gmail.com</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,13 +686,14 @@
         <v>44818</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>eu@gmail.com</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -662,29 +704,181 @@
         <v>44819</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>eu_dnv@gmail.com</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44820</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>to_ai@gmail.com</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44821</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>to_jovem@gmail.com</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44822</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>to_bem@gmail.com</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44823</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>to_querendo@gmail.com</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44824</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>te_amo@gmail.com</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44825</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>amorzao@gmail.com</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44826</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>amorzinho@gmail.com</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44827</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>willi@gmail.com</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{6FDFFD6D-2EE0-42B6-978B-66B8183F85E2}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{98BC6877-CD73-4FD9-B40E-012925080256}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{485EB37D-D73F-4E3E-9ED7-E60E346361EA}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{D18BBF0B-A26D-4BB0-B716-11B0E677F486}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{2ACAB604-C5D6-41B4-8E0F-625C107D173B}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{87951CD7-B214-41F3-B4C8-174ACA63401E}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{28EC5536-F5C9-4A17-B994-43439A75C9B0}"/>
+    <hyperlink ref="D2" r:id="rId1" display="wendergs2@gmail.com" xr:uid="{6FDFFD6D-2EE0-42B6-978B-66B8183F85E2}"/>
+    <hyperlink ref="D3" r:id="rId2" display="wendergs2@outlook.com" xr:uid="{98BC6877-CD73-4FD9-B40E-012925080256}"/>
+    <hyperlink ref="D4" r:id="rId3" display="aiandraferreira22@gmail.com" xr:uid="{485EB37D-D73F-4E3E-9ED7-E60E346361EA}"/>
+    <hyperlink ref="D5" r:id="rId4" display="fulanoferreira1@teste.com" xr:uid="{D18BBF0B-A26D-4BB0-B716-11B0E677F486}"/>
+    <hyperlink ref="D6" r:id="rId5" display="fulanoferreira2@teste.com" xr:uid="{2ACAB604-C5D6-41B4-8E0F-625C107D173B}"/>
+    <hyperlink ref="D7" r:id="rId6" display="fulanoferreira@teste.com" xr:uid="{87951CD7-B214-41F3-B4C8-174ACA63401E}"/>
+    <hyperlink ref="D8" r:id="rId7" display="eudnv@teste.com" xr:uid="{28EC5536-F5C9-4A17-B994-43439A75C9B0}"/>
+    <hyperlink ref="D9" r:id="rId8" display="eudnv@gmail.com" xr:uid="{1B4A3A3A-BE4C-437B-B901-0DA040A88D07}"/>
+    <hyperlink ref="D10" r:id="rId9" display="eudnvnao@gmail.com" xr:uid="{B735B28F-771A-49EB-9098-C13D054458EF}"/>
+    <hyperlink ref="D11" r:id="rId10" display="tobem@bem.com" xr:uid="{91FADC77-E729-45B8-991F-C333DC0C9F6A}"/>
+    <hyperlink ref="D13" r:id="rId11" display="tobem@bem.com" xr:uid="{06CA5C5D-8038-4C96-B6E9-314C5D35878E}"/>
+    <hyperlink ref="D14" r:id="rId12" display="tobem@bem.com" xr:uid="{437185FD-9E0B-4BBD-B7D1-67902E5F7DF2}"/>
+    <hyperlink ref="D15" r:id="rId13" display="tobem@bem.com" xr:uid="{FF451368-EBDD-44C9-956D-948DE6CEF291}"/>
+    <hyperlink ref="D16" r:id="rId14" display="tobem@bem.com" xr:uid="{E30FBE78-BAFF-4330-B282-2EC59B1FFB5A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>